--- a/data/trans_camb/P2A_lim_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P2A_lim_R-Provincia-trans_camb.xlsx
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>8,64</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,83</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,01</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>14,05</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,14</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,91</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>11,31</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,46</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,89</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,74; 13,41</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,28; 7,95</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,42; 12,14</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,96; 19,43</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,81; 14,08</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,85; 14,92</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,47; 15,17</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,24; 9,64</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,95; 12,02</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>204,66%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>90,76%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>165,99%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>434,89%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>282,89%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>337,53%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>302,47%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>172,71%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>237,91%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>48,58; 556,2</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,05; 313,2</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>31,44; 459,38</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>184,62; 1357,57</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>81,05; 829,98</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>122,63; 842,2</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>138,53; 578,13</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>54,39; 370,29</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>116,89; 478,28</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,08</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,04</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,08</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,39</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,39</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,77</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,24</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,7</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,42</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,55; 3,88</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,89; -2,84</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,17; 14,24</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,68; 3,38</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,87; -1,75</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,75; 11,76</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,08; 2,72</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,11; -3,08</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,26; 11,57</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,82%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-60,42%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>90,85%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,59%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-49,72%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>71,68%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,26%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-54,73%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>80,8%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,17; 46,86</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-76,93; -33,01</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>30,72; 169,48</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,11; 39,17</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-70,43; -17,39</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>28,45; 131,96</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,39; 31,46</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-68,16; -33,68</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>43,17; 122,2</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,83</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,73</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,41</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,41</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,43</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,98</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,61</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,37</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,61</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,06; 11,57</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,23; 1,71</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,62; 18,02</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,93; 10,48</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,3; 4,31</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,72; 13,5</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,86; 9,41</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,77; 2,29</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,81; 14,34</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>241,48%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-25,99%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>474,28%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>204,92%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>45,6%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>319,33%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>221,82%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,58%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>389,68%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>68,09; 737,92</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-77,69; 139,35</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>201,57; 1075,1</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>55,05; 555,83</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,43; 221,77</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>120,88; 728,54</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>87,09; 460,54</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,6; 99,71</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>204,39; 731,93</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,57</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,28</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,58</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,37</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,59</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,14</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,53</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,46</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,97</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,96; 5,02</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,4; 9,6</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,84; 6,88</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,37; 11,75</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,51; 12,25</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,57; 3,05</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,75; 7,36</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,48; 9,65</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,72; 3,76</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,65%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>96,13%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>46,94%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>126,74%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>130,52%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,37%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>80,06%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>114,24%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,14%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,96; 119,28</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,66; 246,12</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,78; 171,37</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>36,97; 279,63</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>45,29; 303,67</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,49; 71,85</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>24,45; 170,38</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>48,93; 218,98</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,07; 76,95</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,89</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,44</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,89</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,61</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,48</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,38</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,25</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,98</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,1</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,48; 18,07</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,67; 3,96</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,03; 3,19</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,58; 17,46</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,24; 1,03</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,16; 0,83</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,72; 15,27</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,2; 0,75</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,47; 0,82</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>110,17%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,55%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,07%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>74,5%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-34,72%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-33,98%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>89,83%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-26,08%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-27,2%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>24,82; 255,82</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-55,12; 55,73</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-56,05; 45,14</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,26; 172,33</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-65,97; 15,11</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,69; 6,2</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>35,06; 167,82</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,54; 7,49</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,5; 7,43</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,28</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,8</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>23,23</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,12</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,85</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>21,13</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,22</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,83</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>22,17</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,94; 10,05</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,99; 13,23</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,6; 27,77</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,8; 14,92</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,6; 13,79</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,42; 25,36</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,49; 11,23</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,81; 11,9</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>19,15; 25,75</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>433,35%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>606,78%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1602,29%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>343,85%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>300,88%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>718,13%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>372,57%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>400,23%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1005,27%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>59,76; 1862,54</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>142,11; 2735,93</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>510,59; 6621,44</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>105,66; 864,0</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>75,99; 728,87</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>338,25; 1718,82</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>161,21; 870,61</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>173,67; 972,05</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>547,32; 2016,4</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,09</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,59</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,6</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,36</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,44</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>30,23</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,23</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,0</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>21,13</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,11; 4,01</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,34; 1,15</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,03; 12,67</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,99; 4,39</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,63; 2,53</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,24; 61,29</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,81; 3,57</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,21; 0,94</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,63; 46,8</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,61%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-22,81%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>123,27%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,27%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,63%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>383,78%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,54%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,44%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>284,14%</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,08; 72,21</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,74; 24,11</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>49,84; 216,05</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,24; 70,85</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,46; 41,45</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>107,02; 994,67</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,81; 55,95</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,62; 14,65</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>108,36; 687,23</t>
         </is>
       </c>
     </row>
@@ -2144,47 +2144,47 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,3</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,47</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,44</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,94</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,58</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,94</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,65</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,09</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,48</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,04; 2,73</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,41; 3,49</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,83; 0,81</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,32; 0,36</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,96; 0,51</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,87; 1,07</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,76; 0,35</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,25; 1,12</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,95; -0,25</t>
         </is>
       </c>
     </row>
@@ -2250,47 +2250,47 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,66%</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,69%</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-29,68%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-25,29%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-22,16%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,68%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,59%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,96%</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-24,92%</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,41; 43,39</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,68; 49,29</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-72,08; 9,47</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,57; 5,11</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,93; 7,1</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,17; 10,79</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,85; 3,61</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,26; 12,82</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,85; -3,52</t>
         </is>
       </c>
     </row>
@@ -2360,47 +2360,47 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,88</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,37</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,14</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,48</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,66</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,46</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,19</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,52</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,39</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,53; 4,25</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,91; 1,5</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,51; 7,99</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,01; 4,85</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,89; 1,83</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,23; 24,82</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,2; 4,17</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,42; 1,45</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,41; 16,35</t>
         </is>
       </c>
     </row>
@@ -2466,47 +2466,47 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>43,35%</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,52%</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>92,4%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>43,37%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,24%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>130,27%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>43,41%</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,1%</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>114,19%</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>21,15; 69,55</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,36; 24,88</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>51,24; 131,69</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>22,23; 65,43</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,91; 24,55</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>63,18; 310,55</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>28,21; 60,56</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,38; 21,14</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>71,64; 226,63</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P2A_lim_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P2A_lim_R-Provincia-trans_camb.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>8,64</t>
+          <t>8,62</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3,83</t>
+          <t>3,81</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>7,01</t>
+          <t>6,98</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>14,05</t>
+          <t>14,04</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>9,14</t>
+          <t>9,13</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>10,91</t>
+          <t>10,89</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>11,31</t>
+          <t>11,29</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>6,46</t>
+          <t>6,44</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>8,89</t>
+          <t>8,87</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,74; 13,41</t>
+          <t>4,25; 14,49</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 7,95</t>
+          <t>-0,24; 8,18</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,42; 12,14</t>
+          <t>2,6; 11,71</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>8,96; 19,43</t>
+          <t>8,92; 19,99</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,81; 14,08</t>
+          <t>4,76; 13,83</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>6,85; 14,92</t>
+          <t>6,77; 14,67</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>7,47; 15,17</t>
+          <t>7,92; 15,26</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,24; 9,64</t>
+          <t>3,51; 9,7</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>5,95; 12,02</t>
+          <t>6,14; 12,24</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>204,66%</t>
+          <t>202,76%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>90,76%</t>
+          <t>89,58%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>165,99%</t>
+          <t>164,33%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>434,89%</t>
+          <t>432,37%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>282,89%</t>
+          <t>281,09%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>337,53%</t>
+          <t>335,47%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>302,47%</t>
+          <t>300,27%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>172,71%</t>
+          <t>171,22%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>237,91%</t>
+          <t>236,05%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>48,58; 556,2</t>
+          <t>58,23; 525,05</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-9,05; 313,2</t>
+          <t>-10,73; 328,01</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>31,44; 459,38</t>
+          <t>37,99; 509,05</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>184,62; 1357,57</t>
+          <t>170,73; 1055,75</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>81,05; 829,98</t>
+          <t>77,43; 767,96</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>122,63; 842,2</t>
+          <t>125,21; 837,93</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>138,53; 578,13</t>
+          <t>144,97; 599,57</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>54,39; 370,29</t>
+          <t>68,2; 401,83</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>116,89; 478,28</t>
+          <t>108,85; 457,6</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -853,12 +853,12 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-6,04</t>
+          <t>-5,95</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>9,08</t>
+          <t>9,22</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -868,12 +868,12 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-5,39</t>
+          <t>-5,34</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>7,77</t>
+          <t>7,84</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -883,12 +883,12 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-5,7</t>
+          <t>-5,63</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>8,42</t>
+          <t>8,53</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,55; 3,88</t>
+          <t>-4,11; 3,89</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,89; -2,84</t>
+          <t>-9,69; -3,24</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,17; 14,24</t>
+          <t>4,78; 14,85</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,68; 3,38</t>
+          <t>-4,51; 3,78</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-8,87; -1,75</t>
+          <t>-9,17; -2,14</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,75; 11,76</t>
+          <t>3,46; 11,65</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,08; 2,72</t>
+          <t>-3,27; 2,43</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-8,11; -3,08</t>
+          <t>-8,07; -3,41</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,26; 11,57</t>
+          <t>5,28; 11,84</t>
         </is>
       </c>
     </row>
@@ -959,12 +959,12 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-60,42%</t>
+          <t>-59,52%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>90,85%</t>
+          <t>92,32%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -974,12 +974,12 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-49,72%</t>
+          <t>-49,23%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>71,68%</t>
+          <t>72,37%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -989,12 +989,12 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-54,73%</t>
+          <t>-54,0%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>80,8%</t>
+          <t>81,86%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-36,17; 46,86</t>
+          <t>-35,74; 47,45</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-76,93; -33,01</t>
+          <t>-78,42; -33,21</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>30,72; 169,48</t>
+          <t>37,68; 178,3</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-35,11; 39,17</t>
+          <t>-34,29; 42,27</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-70,43; -17,39</t>
+          <t>-69,03; -20,61</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>28,45; 131,96</t>
+          <t>25,41; 133,25</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-25,39; 31,46</t>
+          <t>-27,42; 25,54</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-68,16; -33,68</t>
+          <t>-66,7; -33,41</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>43,17; 122,2</t>
+          <t>43,11; 130,39</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>13,41</t>
+          <t>13,45</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>11,61</t>
+          <t>11,63</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,06; 11,57</t>
+          <t>3,01; 11,33</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 1,71</t>
+          <t>-3,29; 1,97</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>9,62; 18,02</t>
+          <t>9,19; 17,83</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,93; 10,48</t>
+          <t>2,62; 10,18</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 4,31</t>
+          <t>-1,6; 4,33</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>6,72; 13,5</t>
+          <t>6,58; 13,51</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,86; 9,41</t>
+          <t>4,1; 9,67</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,77; 2,29</t>
+          <t>-1,71; 2,15</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>8,81; 14,34</t>
+          <t>8,86; 14,37</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>474,28%</t>
+          <t>475,94%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>389,68%</t>
+          <t>390,35%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>68,09; 737,92</t>
+          <t>64,8; 707,63</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-77,69; 139,35</t>
+          <t>-77,14; 142,57</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>201,57; 1075,1</t>
+          <t>185,02; 1164,63</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>55,05; 555,83</t>
+          <t>42,24; 527,22</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-35,43; 221,77</t>
+          <t>-37,06; 236,61</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>120,88; 728,54</t>
+          <t>118,57; 738,89</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>87,09; 460,54</t>
+          <t>99,64; 472,52</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-44,6; 99,71</t>
+          <t>-43,26; 107,58</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>204,39; 731,93</t>
+          <t>212,24; 730,56</t>
         </is>
       </c>
     </row>
@@ -1280,17 +1280,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,57</t>
+          <t>1,53</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>5,28</t>
+          <t>5,23</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,58</t>
+          <t>2,59</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1310,12 +1310,12 @@
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>4,53</t>
+          <t>4,5</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>6,46</t>
+          <t>6,44</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 5,02</t>
+          <t>-2,09; 5,06</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,4; 9,6</t>
+          <t>1,26; 9,67</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 6,88</t>
+          <t>-1,61; 7,37</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,37; 11,75</t>
+          <t>2,91; 11,43</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>3,51; 12,25</t>
+          <t>2,81; 11,87</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,57; 3,05</t>
+          <t>-3,87; 3,22</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,75; 7,36</t>
+          <t>1,85; 7,64</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>3,48; 9,65</t>
+          <t>3,5; 9,17</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 3,76</t>
+          <t>-1,8; 3,57</t>
         </is>
       </c>
     </row>
@@ -1386,17 +1386,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>28,65%</t>
+          <t>27,57%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>96,13%</t>
+          <t>94,49%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>46,94%</t>
+          <t>46,79%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1416,17 +1416,17 @@
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>80,06%</t>
+          <t>79,32%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>114,24%</t>
+          <t>113,36%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>17,14%</t>
+          <t>17,0%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-29,96; 119,28</t>
+          <t>-30,37; 132,59</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>16,66; 246,12</t>
+          <t>12,1; 240,0</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-26,78; 171,37</t>
+          <t>-30,55; 170,79</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>36,97; 279,63</t>
+          <t>32,25; 266,15</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>45,29; 303,67</t>
+          <t>29,6; 272,81</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-47,49; 71,85</t>
+          <t>-49,66; 75,21</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>24,45; 170,38</t>
+          <t>25,95; 164,06</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>48,93; 218,98</t>
+          <t>50,87; 197,66</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-27,07; 76,95</t>
+          <t>-28,71; 77,45</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-1,89</t>
+          <t>-1,6</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-4,38</t>
+          <t>-4,07</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-3,1</t>
+          <t>-2,81</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>3,48; 18,07</t>
+          <t>4,19; 18,25</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-6,67; 3,96</t>
+          <t>-7,01; 4,03</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-7,03; 3,19</t>
+          <t>-6,84; 3,47</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>2,58; 17,46</t>
+          <t>2,47; 17,46</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-11,24; 1,03</t>
+          <t>-10,39; 1,09</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-11,16; 0,83</t>
+          <t>-11,18; 1,27</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>4,72; 15,27</t>
+          <t>5,04; 15,79</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-7,2; 0,75</t>
+          <t>-7,23; 1,29</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-7,47; 0,82</t>
+          <t>-6,77; 1,09</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-19,07%</t>
+          <t>-16,22%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-33,98%</t>
+          <t>-31,58%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-27,2%</t>
+          <t>-24,59%</t>
         </is>
       </c>
     </row>
@@ -1655,54 +1655,54 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>24,82; 255,82</t>
+          <t>30,85; 259,47</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-55,12; 55,73</t>
+          <t>-56,55; 55,62</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-56,05; 45,14</t>
+          <t>-50,5; 54,02</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>10,26; 172,33</t>
+          <t>13,52; 187,75</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-65,97; 15,11</t>
+          <t>-62,69; 13,98</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-66,69; 6,2</t>
+          <t>-64,78; 12,37</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>35,06; 167,82</t>
+          <t>34,83; 172,17</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-52,54; 7,49</t>
+          <t>-52,29; 15,55</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-53,5; 7,43</t>
+          <t>-51,56; 11,71</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1712,17 +1712,17 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>6,28</t>
+          <t>6,27</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>8,8</t>
+          <t>8,78</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>23,23</t>
+          <t>23,21</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
@@ -1742,12 +1742,12 @@
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>8,22</t>
+          <t>8,21</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>8,83</t>
+          <t>8,82</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>2,94; 10,05</t>
+          <t>2,8; 10,06</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>4,99; 13,23</t>
+          <t>4,88; 12,94</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>18,6; 27,77</t>
+          <t>18,46; 28,47</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>5,8; 14,92</t>
+          <t>5,73; 14,76</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>4,6; 13,79</t>
+          <t>4,37; 13,34</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>16,42; 25,36</t>
+          <t>16,55; 25,52</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>5,49; 11,23</t>
+          <t>5,51; 11,46</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>5,81; 11,9</t>
+          <t>6,02; 12,15</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>19,15; 25,75</t>
+          <t>18,99; 25,68</t>
         </is>
       </c>
     </row>
@@ -1818,17 +1818,17 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>433,35%</t>
+          <t>429,37%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>606,78%</t>
+          <t>601,52%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>1602,29%</t>
+          <t>1589,6%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
@@ -1848,17 +1848,17 @@
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>372,57%</t>
+          <t>370,83%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>400,23%</t>
+          <t>398,39%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>1005,27%</t>
+          <t>1001,2%</t>
         </is>
       </c>
     </row>
@@ -1871,54 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>59,76; 1862,54</t>
+          <t>87,12; 2190,68</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>142,11; 2735,93</t>
+          <t>128,87; 2491,12</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>510,59; 6621,44</t>
+          <t>589,09; 6722,11</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>105,66; 864,0</t>
+          <t>109,75; 929,39</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>75,99; 728,87</t>
+          <t>85,19; 826,18</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>338,25; 1718,82</t>
+          <t>320,21; 1637,17</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>161,21; 870,61</t>
+          <t>158,52; 837,8</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>173,67; 972,05</t>
+          <t>163,37; 840,85</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>547,32; 2016,4</t>
+          <t>534,83; 1871,1</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>1,09</t>
+          <t>1,1</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-1,59</t>
+          <t>-1,55</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>8,6</t>
+          <t>8,8</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>1,36</t>
+          <t>1,39</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-0,44</t>
+          <t>-0,42</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>30,23</t>
+          <t>30,33</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>1,23</t>
+          <t>1,25</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>-1,0</t>
+          <t>-0,96</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>21,13</t>
+          <t>21,32</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 4,01</t>
+          <t>-1,93; 4,11</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-4,34; 1,15</t>
+          <t>-4,38; 1,18</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>5,03; 12,67</t>
+          <t>5,04; 12,27</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 4,39</t>
+          <t>-1,47; 4,53</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-3,63; 2,53</t>
+          <t>-3,5; 2,27</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>9,24; 61,29</t>
+          <t>9,33; 62,46</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 3,57</t>
+          <t>-0,87; 3,64</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-3,21; 0,94</t>
+          <t>-2,95; 1,13</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>8,63; 46,8</t>
+          <t>8,88; 48,51</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>15,61%</t>
+          <t>15,78%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-22,81%</t>
+          <t>-22,15%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>123,27%</t>
+          <t>126,04%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>17,27%</t>
+          <t>17,6%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-5,63%</t>
+          <t>-5,36%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>383,78%</t>
+          <t>385,05%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>16,54%</t>
+          <t>16,79%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>-13,44%</t>
+          <t>-12,96%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>284,14%</t>
+          <t>286,73%</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-23,08; 72,21</t>
+          <t>-23,9; 74,01</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-51,74; 24,11</t>
+          <t>-52,48; 21,54</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>49,84; 216,05</t>
+          <t>58,56; 221,2</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-21,24; 70,85</t>
+          <t>-15,84; 71,92</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-38,46; 41,45</t>
+          <t>-36,8; 35,4</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>107,02; 994,67</t>
+          <t>109,95; 987,79</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-9,81; 55,95</t>
+          <t>-10,38; 55,34</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-37,62; 14,65</t>
+          <t>-34,49; 16,98</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>108,36; 687,23</t>
+          <t>113,79; 694,02</t>
         </is>
       </c>
     </row>
@@ -2144,27 +2144,27 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>-0,3</t>
+          <t>-0,31</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>0,47</t>
+          <t>0,44</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>-2,44</t>
+          <t>-2,46</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>-2,94</t>
+          <t>-2,98</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>-2,58</t>
+          <t>-2,62</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
@@ -2174,17 +2174,17 @@
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>-1,65</t>
+          <t>-1,68</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>-1,09</t>
+          <t>-1,13</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>-2,48</t>
+          <t>-2,5</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-3,04; 2,73</t>
+          <t>-2,97; 2,62</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-2,41; 3,49</t>
+          <t>-2,63; 3,54</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-6,83; 0,81</t>
+          <t>-7,39; 0,51</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-6,32; 0,36</t>
+          <t>-6,17; 0,37</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-5,96; 0,51</t>
+          <t>-5,59; 0,51</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-4,87; 1,07</t>
+          <t>-4,95; 0,99</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-3,76; 0,35</t>
+          <t>-3,81; 0,34</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 1,12</t>
+          <t>-3,23; 1,03</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-5,95; -0,25</t>
+          <t>-6,51; -0,34</t>
         </is>
       </c>
     </row>
@@ -2250,47 +2250,47 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>-3,66%</t>
+          <t>-3,72%</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>5,69%</t>
+          <t>5,33%</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>-29,68%</t>
+          <t>-29,78%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>-25,29%</t>
+          <t>-25,58%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>-22,16%</t>
+          <t>-22,47%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>-16,68%</t>
+          <t>-16,63%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>-16,59%</t>
+          <t>-16,78%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>-10,96%</t>
+          <t>-11,29%</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>-24,92%</t>
+          <t>-24,96%</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-31,41; 43,39</t>
+          <t>-31,08; 38,72</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-24,68; 49,29</t>
+          <t>-27,06; 52,69</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-72,08; 9,47</t>
+          <t>-69,48; 6,01</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-46,57; 5,11</t>
+          <t>-45,17; 5,45</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-42,93; 7,1</t>
+          <t>-42,42; 5,46</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-36,17; 10,79</t>
+          <t>-35,36; 10,27</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-33,85; 3,61</t>
+          <t>-33,82; 3,98</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-29,26; 12,82</t>
+          <t>-29,41; 11,97</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-53,85; -3,52</t>
+          <t>-59,94; -4,45</t>
         </is>
       </c>
     </row>
@@ -2360,17 +2360,17 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>2,88</t>
+          <t>2,87</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>0,37</t>
+          <t>0,38</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>6,14</t>
+          <t>6,2</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
@@ -2380,27 +2380,27 @@
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>0,66</t>
+          <t>0,67</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>10,46</t>
+          <t>10,54</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>3,19</t>
+          <t>3,18</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>0,52</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>8,39</t>
+          <t>8,46</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>1,53; 4,25</t>
+          <t>1,48; 4,3</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 1,5</t>
+          <t>-0,98; 1,73</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>3,51; 7,99</t>
+          <t>3,34; 8,03</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>2,01; 4,85</t>
+          <t>2,0; 4,86</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 1,83</t>
+          <t>-0,67; 2,09</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>5,23; 24,82</t>
+          <t>5,29; 24,61</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>2,2; 4,17</t>
+          <t>2,28; 4,16</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 1,45</t>
+          <t>-0,43; 1,41</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>5,41; 16,35</t>
+          <t>5,6; 20,5</t>
         </is>
       </c>
     </row>
@@ -2466,47 +2466,47 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>43,35%</t>
+          <t>43,08%</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>5,52%</t>
+          <t>5,75%</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>92,4%</t>
+          <t>93,13%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>43,37%</t>
+          <t>43,27%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>8,24%</t>
+          <t>8,32%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>130,27%</t>
+          <t>131,01%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>43,41%</t>
+          <t>43,22%</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>7,1%</t>
+          <t>7,25%</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>114,19%</t>
+          <t>114,93%</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>21,15; 69,55</t>
+          <t>20,37; 70,69</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-12,36; 24,88</t>
+          <t>-13,5; 28,49</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>51,24; 131,69</t>
+          <t>47,85; 127,85</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>22,23; 65,43</t>
+          <t>22,41; 65,67</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-9,91; 24,55</t>
+          <t>-7,53; 28,79</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>63,18; 310,55</t>
+          <t>64,3; 322,65</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>28,21; 60,56</t>
+          <t>28,81; 60,41</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>-5,38; 21,14</t>
+          <t>-5,49; 20,43</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>71,64; 226,63</t>
+          <t>74,06; 262,23</t>
         </is>
       </c>
     </row>
